--- a/terms/scapulaTerms.xlsx
+++ b/terms/scapulaTerms.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A690C0D2-5DEA-204A-9419-DC9834092266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB39BAC-5F95-C742-80BC-42BA2821A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="5500" windowWidth="24040" windowHeight="11940" activeTab="1" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
+    <workbookView xWindow="14400" yWindow="620" windowWidth="14400" windowHeight="12660" activeTab="1" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="structures" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="3" r:id="rId2"/>
+    <sheet name="AB" sheetId="4" r:id="rId3"/>
+    <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -55,25 +57,160 @@
     <t>Scapula ASG</t>
   </si>
   <si>
-    <t>Scapula diagonal height from the posterior proximal corner to the most distal point of the glenoidal lip</t>
-  </si>
-  <si>
-    <t>Scapula greatest breadth of the glenoid</t>
-  </si>
-  <si>
     <t>Scapula greatest dorsal length the top edge of the scapula rim</t>
   </si>
   <si>
-    <t>Scapula greatest length of the glenoid</t>
-  </si>
-  <si>
-    <t>Scapula greatest length of the glenoid cavity (measured with the reverse side of venire calipers)</t>
-  </si>
-  <si>
     <t>Scapula height scapular spine</t>
   </si>
   <si>
-    <t>Scapula smallest length of the scapular Cullum/neck</t>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>DHA</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>SLC</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Scaplula maximal depth of the spina</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Scapula maximal length; Scapula diagonal height from the posterior proximal corner to the most distal point of the glenoidal lip</t>
+  </si>
+  <si>
+    <t>Ld</t>
+  </si>
+  <si>
+    <t>Scapula minimal breadth at neck; Scapula smallest length of the scapular Cullum/neck</t>
+  </si>
+  <si>
+    <t>Scapula greatest length of the glenoid cavity (measured with the reverse side of venire calipers); Scapula articular maximal breadth</t>
+  </si>
+  <si>
+    <t>Scapula greatest breadth of the glenoid cavity; Scapula articular maximal depth</t>
+  </si>
+  <si>
+    <t>Scapula length</t>
+  </si>
+  <si>
+    <t>Scapula neck breadth</t>
+  </si>
+  <si>
+    <t>Scapula greatest length of the glenoid; Scapula breadth at the articular process</t>
+  </si>
+  <si>
+    <t>breadth of glenoid process</t>
+  </si>
+  <si>
+    <t>scapula distal breadth</t>
+  </si>
+  <si>
+    <t>scapula depth</t>
+  </si>
+  <si>
+    <t>length of glenoid cavity</t>
+  </si>
+  <si>
+    <t>breadth of glenoid cavity</t>
+  </si>
+  <si>
+    <t>Scapula spine length</t>
+  </si>
+  <si>
+    <t>scpula dorsal length</t>
+  </si>
+  <si>
+    <t>scapula</t>
+  </si>
+  <si>
+    <t>in dorsal side of some scapula</t>
+  </si>
+  <si>
+    <t>glenoid process</t>
+  </si>
+  <si>
+    <t>glenoid cavity</t>
+  </si>
+  <si>
+    <t>scapula spine</t>
+  </si>
+  <si>
+    <t>collum scapulae</t>
+  </si>
+  <si>
+    <t>scapula neck</t>
+  </si>
+  <si>
+    <t>processus articularis</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>lateral in humans</t>
+  </si>
+  <si>
+    <t>glenoid process breadth</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>anterior-posterior in humans</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
   </si>
 </sst>
 </file>
@@ -432,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C644AB-D3DB-D847-AAAF-F3E155F94507}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,39 +609,122 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
       <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E5" s="1" t="s">
-        <v>11</v>
+      <c r="F5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -512,13 +732,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1CEEF-D706-1748-AF7C-D726CF164DF4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF42018-2D6B-7D49-894E-E8D531DB42FC}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B815CC-4A00-ED42-82E6-D8F61F2F762F}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1CEEF-D706-1748-AF7C-D726CF164DF4}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/terms/scapulaTerms.xlsx
+++ b/terms/scapulaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB39BAC-5F95-C742-80BC-42BA2821A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329F40F-C703-6948-8A7B-F95733BC6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="620" windowWidth="14400" windowHeight="12660" activeTab="1" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -180,18 +180,9 @@
     <t>glenoid process</t>
   </si>
   <si>
-    <t>glenoid cavity</t>
-  </si>
-  <si>
     <t>scapula spine</t>
   </si>
   <si>
-    <t>collum scapulae</t>
-  </si>
-  <si>
-    <t>scapula neck</t>
-  </si>
-  <si>
     <t>processus articularis</t>
   </si>
   <si>
@@ -211,6 +202,12 @@
   </si>
   <si>
     <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>glenoid fossa</t>
+  </si>
+  <si>
+    <t>neck of scapula</t>
   </si>
 </sst>
 </file>
@@ -736,7 +733,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,7 +757,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -771,7 +768,7 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -782,10 +779,10 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -793,27 +790,27 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -821,10 +818,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -832,10 +829,10 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -843,7 +840,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -888,10 +885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1CEEF-D706-1748-AF7C-D726CF164DF4}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,20 +898,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/terms/scapulaTerms.xlsx
+++ b/terms/scapulaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329F40F-C703-6948-8A7B-F95733BC6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD4E95-9ECB-7A4D-89EB-669351C67DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="620" windowWidth="14400" windowHeight="12660" activeTab="1" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/scapulaTerms.xlsx
+++ b/terms/scapulaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD4E95-9ECB-7A4D-89EB-669351C67DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239CD6A-E9C0-9744-B548-AEF2EEE1F7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="620" windowWidth="14400" windowHeight="12660" activeTab="1" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>neck of scapula</t>
+  </si>
+  <si>
+    <t>in oba</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>in fovt</t>
   </si>
 </sst>
 </file>
@@ -568,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C644AB-D3DB-D847-AAAF-F3E155F94507}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,6 +615,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" t="s">
         <v>37</v>
       </c>
@@ -620,6 +632,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
@@ -631,6 +649,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
@@ -642,6 +666,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
@@ -673,6 +703,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
@@ -687,6 +723,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -701,6 +743,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -725,6 +773,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -732,11 +781,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF42018-2D6B-7D49-894E-E8D531DB42FC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -888,7 +940,7 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/scapulaTerms.xlsx
+++ b/terms/scapulaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239CD6A-E9C0-9744-B548-AEF2EEE1F7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBB6F3D-1988-C644-95C1-53D249ACD712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -217,13 +217,58 @@
   </si>
   <si>
     <t>in fovt</t>
+  </si>
+  <si>
+    <t>collum scapulae</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Text definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subclass of</t>
+  </si>
+  <si>
+    <t>Equivalent to</t>
+  </si>
+  <si>
+    <t>Disjoint with</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>added synonym to fovt-scapula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +280,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -258,9 +321,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C644AB-D3DB-D847-AAAF-F3E155F94507}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -937,21 +1003,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1CEEF-D706-1748-AF7C-D726CF164DF4}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terms/scapulaTerms.xlsx
+++ b/terms/scapulaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBB6F3D-1988-C644-95C1-53D249ACD712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31607A5A-7982-3640-B3E8-C35B2AB7064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>added synonym to fovt-scapula</t>
+  </si>
+  <si>
+    <t>emailed Kitty &amp; Ray for help</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1009,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,6 +1062,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>

--- a/terms/scapulaTerms.xlsx
+++ b/terms/scapulaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31607A5A-7982-3640-B3E8-C35B2AB7064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22AE210-EC29-8A49-AF18-F9568BD29230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{EA1FFA2F-09CB-F14C-A741-66F5F16569C3}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AB" sheetId="4" r:id="rId3"/>
     <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -177,24 +177,12 @@
     <t>in dorsal side of some scapula</t>
   </si>
   <si>
-    <t>glenoid process</t>
-  </si>
-  <si>
     <t>scapula spine</t>
   </si>
   <si>
-    <t>processus articularis</t>
-  </si>
-  <si>
     <t>anterior-posterior</t>
   </si>
   <si>
-    <t>lateral in humans</t>
-  </si>
-  <si>
-    <t>glenoid process breadth</t>
-  </si>
-  <si>
     <t>medial-lateral</t>
   </si>
   <si>
@@ -216,9 +204,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>in fovt</t>
-  </si>
-  <si>
     <t>collum scapulae</t>
   </si>
   <si>
@@ -264,7 +249,16 @@
     <t>added synonym to fovt-scapula</t>
   </si>
   <si>
-    <t>emailed Kitty &amp; Ray for help</t>
+    <t>anterior-most part of coracoid process of scapula</t>
+  </si>
+  <si>
+    <t>posterior-most part of glenoid process</t>
+  </si>
+  <si>
+    <t>scapula lateral breadth</t>
+  </si>
+  <si>
+    <t>in fovt; no equivalency</t>
   </si>
 </sst>
 </file>
@@ -646,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C644AB-D3DB-D847-AAAF-F3E155F94507}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +679,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -702,10 +696,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -719,10 +713,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -736,10 +730,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -755,8 +749,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF42018-2D6B-7D49-894E-E8D531DB42FC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,7 +878,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -889,7 +889,7 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -900,10 +900,10 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,27 +911,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -939,10 +925,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -950,10 +936,10 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -961,7 +947,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -974,10 +960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B815CC-4A00-ED42-82E6-D8F61F2F762F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,6 +983,17 @@
       </c>
       <c r="E1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1008,15 +1005,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1CEEF-D706-1748-AF7C-D726CF164DF4}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
@@ -1025,62 +1022,51 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.2">
